--- a/data/keion/ISU Fall 2022 Soil test results.xlsx
+++ b/data/keion/ISU Fall 2022 Soil test results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wlperry/My Drive/r_class_2024_fall/data/keion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wlperry/Desktop/R_class_2024/data/keion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B69EC25-B801-3E42-9EE6-5E546CEEA0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BB127E-D00D-D446-AE72-C328C1043E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44160" yWindow="2660" windowWidth="19380" windowHeight="10260" xr2:uid="{3901E9A2-4BDE-41B5-8BF0-2CC1C0037FC4}"/>
+    <workbookView xWindow="44160" yWindow="2660" windowWidth="19380" windowHeight="10260" activeTab="1" xr2:uid="{3901E9A2-4BDE-41B5-8BF0-2CC1C0037FC4}"/>
   </bookViews>
   <sheets>
     <sheet name="ISU 1-216" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="42">
   <si>
     <t>Location</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>WIU</t>
-  </si>
-  <si>
-    <t>)</t>
   </si>
   <si>
     <t>HR</t>
@@ -16507,7 +16504,7 @@
   </sheetPr>
   <dimension ref="A1:AZ217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="AG11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
@@ -24874,8 +24871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8EC270-F2FC-42BE-88F5-F89DEA2D7A05}">
   <dimension ref="A1:AZ217"/>
   <sheetViews>
-    <sheetView topLeftCell="L3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AY36" sqref="AY36"/>
+    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J200" sqref="J200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32614,9 +32611,6 @@
       </c>
       <c r="I200">
         <v>65.2</v>
-      </c>
-      <c r="J200" s="15" t="s">
-        <v>41</v>
       </c>
       <c r="K200">
         <v>281</v>
@@ -33204,7 +33198,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -33221,7 +33215,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -33238,7 +33232,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -33255,7 +33249,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
@@ -33272,7 +33266,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
@@ -33289,7 +33283,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
@@ -33306,7 +33300,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
@@ -33323,7 +33317,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2">
         <v>8</v>
@@ -33340,7 +33334,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2">
         <v>9</v>
@@ -33357,7 +33351,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
@@ -33374,7 +33368,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2">
         <v>11</v>
@@ -33391,7 +33385,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2">
         <v>12</v>
@@ -33408,7 +33402,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2">
         <v>13</v>
@@ -33425,7 +33419,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2">
         <v>14</v>
@@ -33442,7 +33436,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2">
         <v>15</v>
@@ -33459,7 +33453,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2">
         <v>16</v>
@@ -33476,7 +33470,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2">
         <v>17</v>
@@ -33493,7 +33487,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2">
         <v>18</v>
@@ -33510,7 +33504,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2">
         <v>19</v>
@@ -33527,7 +33521,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2">
         <v>20</v>
@@ -33544,7 +33538,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2">
         <v>21</v>
@@ -33561,7 +33555,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2">
         <v>22</v>
@@ -33578,7 +33572,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2">
         <v>23</v>
@@ -33595,7 +33589,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="2">
         <v>24</v>
@@ -33612,7 +33606,7 @@
         <v>14</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="2">
         <v>25</v>
@@ -33629,7 +33623,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="2">
         <v>26</v>
@@ -33646,7 +33640,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="2">
         <v>27</v>
@@ -33663,7 +33657,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2">
         <v>28</v>
@@ -33680,7 +33674,7 @@
         <v>14</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="2">
         <v>29</v>
@@ -33697,7 +33691,7 @@
         <v>14</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2">
         <v>30</v>
@@ -33714,7 +33708,7 @@
         <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="2">
         <v>31</v>
@@ -33731,7 +33725,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="2">
         <v>32</v>
@@ -33748,7 +33742,7 @@
         <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="2">
         <v>33</v>
@@ -33765,7 +33759,7 @@
         <v>14</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="2">
         <v>34</v>
@@ -33782,7 +33776,7 @@
         <v>14</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="2">
         <v>35</v>
@@ -33799,7 +33793,7 @@
         <v>14</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="2">
         <v>36</v>
